--- a/GenerateApp/tables_short_horiz/Data/1/source.xlsx
+++ b/GenerateApp/tables_short_horiz/Data/1/source.xlsx
@@ -14,24 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>01.2013</t>
-  </si>
-  <si>
-    <t>02.2013</t>
-  </si>
-  <si>
-    <t>03.2013</t>
-  </si>
-  <si>
-    <t>04.2013</t>
-  </si>
-  <si>
-    <t>05.2013</t>
-  </si>
-  <si>
-    <t>06.2013</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>AVB</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>RMD</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>MMC</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -92,59 +104,82 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00FF00"/>
+              <a:srgbClr val="008000"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>01.2013</c:v>
+                  <c:v>AVB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02.2013</c:v>
+                  <c:v>TXT</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03.2013</c:v>
+                  <c:v>RMD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04.2013</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05.2013</c:v>
+                  <c:v>TEL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06.2013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>MMC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HPE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EFX</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CAG</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$6</c:f>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>361</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>622</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>354</c:v>
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -159,14 +194,15 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -219,10 +255,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -529,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>361</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -548,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>622</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -556,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>519</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -564,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>417</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -572,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>195</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +616,39 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>354</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
